--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints3.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints3.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.202974202405679e-09</v>
+        <v>2.21254059753428e-09</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.197813340816618e-09</v>
+        <v>2.208025531782061e-09</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>2.189777136165184e-09</v>
+        <v>2.200077125394402e-09</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.179100650379382e-09</v>
+        <v>2.188993870944965e-09</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.166018945387183e-09</v>
+        <v>2.175074261007382e-09</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.150767083116569e-09</v>
+        <v>2.158616788155293e-09</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.133580125495499e-09</v>
+        <v>2.139919944962313e-09</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.114693134451999e-09</v>
+        <v>2.119282224002133e-09</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.094341171914028e-09</v>
+        <v>2.097002117848368e-09</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.07275929980954e-09</v>
+        <v>2.073378119074628e-09</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.050182580066573e-09</v>
+        <v>2.048708720254616e-09</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.026846074613081e-09</v>
+        <v>2.023292413961942e-09</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.002984845377014e-09</v>
+        <v>1.997427692770211e-09</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.978833954286416e-09</v>
+        <v>1.971413049253134e-09</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.954628463269237e-09</v>
+        <v>1.945546975984315e-09</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.930603434253461e-09</v>
+        <v>1.920127965537397e-09</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.906993929167036e-09</v>
+        <v>1.895454510485988e-09</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.884035009938007e-09</v>
+        <v>1.871825103403793e-09</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.861956390992931e-09</v>
+        <v>1.849529656094289e-09</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.840880249899072e-09</v>
+        <v>1.828685523310066e-09</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.820829171594939e-09</v>
+        <v>1.809250250316751e-09</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.801821985297822e-09</v>
+        <v>1.791175355830774e-09</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.783877520225032e-09</v>
+        <v>1.774412358568589e-09</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.767014605593864e-09</v>
+        <v>1.758912777246636e-09</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.751252070621675e-09</v>
+        <v>1.74462813058141e-09</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.736608744525757e-09</v>
+        <v>1.731509937289348e-09</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.723103456523405e-09</v>
+        <v>1.719509716086891e-09</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.710755035831972e-09</v>
+        <v>1.708578985690528e-09</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.699582311668751e-09</v>
+        <v>1.698669264816698e-09</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.689604113251058e-09</v>
+        <v>1.689732072181859e-09</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.680839269796195e-09</v>
+        <v>1.681718926502457e-09</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.673306610521499e-09</v>
+        <v>1.674581346494969e-09</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.667024964644272e-09</v>
+        <v>1.668270850875842e-09</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.662013161381823e-09</v>
+        <v>1.662738958361525e-09</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.658259457505151e-09</v>
+        <v>1.657922251855001e-09</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.655547496367998e-09</v>
+        <v>1.653657352751267e-09</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.653576943579064e-09</v>
+        <v>1.649739856093567e-09</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.652047208704645e-09</v>
+        <v>1.645965231838609e-09</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.650657701311023e-09</v>
+        <v>1.642128949943087e-09</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.649107830964487e-09</v>
+        <v>1.6380264803637e-09</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.647097007231322e-09</v>
+        <v>1.633453293057141e-09</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.644324639677822e-09</v>
+        <v>1.628204857980122e-09</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.640490137870271e-09</v>
+        <v>1.622076645089336e-09</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.635292911374951e-09</v>
+        <v>1.614864124341472e-09</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.628432369758162e-09</v>
+        <v>1.606362765693248e-09</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.619607922586187e-09</v>
+        <v>1.596368039101355e-09</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.608518979425314e-09</v>
+        <v>1.584675414522492e-09</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.594864949841811e-09</v>
+        <v>1.57108036191334e-09</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.578345243402002e-09</v>
+        <v>1.555378351230632e-09</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.558685852769649e-09</v>
+        <v>1.537381143331809e-09</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.535954522435169e-09</v>
+        <v>1.517109934603543e-09</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.510456085596286e-09</v>
+        <v>1.494731216336662e-09</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.482500144621656e-09</v>
+        <v>1.470414402509604e-09</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.452396301879918e-09</v>
+        <v>1.444328907100796e-09</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.420454159739832e-09</v>
+        <v>1.416644144088768e-09</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.386983320570044e-09</v>
+        <v>1.387529527451951e-09</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.352293386739232e-09</v>
+        <v>1.357154471168805e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.316693960616034e-09</v>
+        <v>1.325688389217752e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.280494644569222e-09</v>
+        <v>1.293300695577338e-09</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.244005040967434e-09</v>
+        <v>1.260160804225983e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.207534752179302e-09</v>
+        <v>1.226438129142105e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.171387718220859e-09</v>
+        <v>1.192300262529867e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.135728621932981e-09</v>
+        <v>1.157869992751814e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.100577683692729e-09</v>
+        <v>1.123223629607893e-09</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.065948420027088e-09</v>
+        <v>1.088435326037982e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.031854347463178e-09</v>
+        <v>1.053579234982094e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>9.983089825279813e-10</v>
+        <v>1.018729509380107e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>9.653258417484854e-10</v>
+        <v>9.839603021718978e-10</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>9.329184416518056e-10</v>
+        <v>9.493457662974798e-10</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>9.011002987649281e-10</v>
+        <v>9.149600546967307e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>8.698849296148415e-10</v>
+        <v>8.808773203095282e-10</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>8.392858507286572e-10</v>
+        <v>8.471717160758846e-10</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>8.093165786333629e-10</v>
+        <v>8.139173949356774e-10</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>7.799906298559884e-10</v>
+        <v>7.811885098288294e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>7.51321520923525e-10</v>
+        <v>7.490592136952209e-10</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>7.233227683630783e-10</v>
+        <v>7.176036594748598e-10</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>6.960078887016387e-10</v>
+        <v>6.868960001076254e-10</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>6.693903984662018e-10</v>
+        <v>6.570103885334022e-10</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>6.434838141838666e-10</v>
+        <v>6.280209776921911e-10</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>6.183016523816265e-10</v>
+        <v>6.000019205238747e-10</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>5.938574295865116e-10</v>
+        <v>5.730273699683761e-10</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>5.701646623255204e-10</v>
+        <v>5.471714789655842e-10</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>5.472368671257441e-10</v>
+        <v>5.225084004554899e-10</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>5.250875605141808e-10</v>
+        <v>4.991122873779811e-10</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>5.037302590178324e-10</v>
+        <v>4.770572926729524e-10</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>4.831784791637842e-10</v>
+        <v>4.564175692803842e-10</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>4.634457374790368e-10</v>
+        <v>4.372672701401694e-10</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>4.445660796252324e-10</v>
+        <v>4.196744691543557e-10</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>4.266802646362242e-10</v>
+        <v>4.036756405183191e-10</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>4.099636170135967e-10</v>
+        <v>3.89297022984502e-10</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>3.94591478992702e-10</v>
+        <v>3.765648500539811e-10</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>3.807391928088992e-10</v>
+        <v>3.655053552278418e-10</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>3.685821006976006e-10</v>
+        <v>3.561447720072119e-10</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>3.582955448941633e-10</v>
+        <v>3.485093338931746e-10</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>3.500548676339539e-10</v>
+        <v>3.426252743868221e-10</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>3.440354111523701e-10</v>
+        <v>3.385188269892686e-10</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>3.404125176847762e-10</v>
+        <v>3.362162252016042e-10</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>3.393615294665478e-10</v>
+        <v>3.357437025249274e-10</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>3.410577887330653e-10</v>
+        <v>3.371274924603402e-10</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>3.456766377197005e-10</v>
+        <v>3.403938285089378e-10</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.151790864245545e-09</v>
+        <v>1.140782580184022e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.543009211791539e-09</v>
+        <v>1.539974205991473e-09</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.481300215092346e-09</v>
+        <v>1.464567524010033e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.465259816809463e-09</v>
+        <v>1.458755890069728e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.46238974332303e-09</v>
+        <v>1.470620459605792e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.452866148887768e-09</v>
+        <v>1.462423412934029e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.5714757704161e-09</v>
+        <v>1.569415923732478e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.056290793936494e-09</v>
+        <v>2.042415495808848e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.814761947418734e-09</v>
+        <v>2.803508389554486e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.12127176660258e-09</v>
+        <v>3.132458700381647e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.258796841569539e-09</v>
+        <v>3.283070501946352e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>3.384036538167981e-09</v>
+        <v>3.393579354784437e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.312031857046642e-09</v>
+        <v>3.28419769944157e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.10076909511865e-09</v>
+        <v>3.068763246692023e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.938719192874946e-09</v>
+        <v>2.991534914346435e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.866023748698552e-09</v>
+        <v>2.976552526919084e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>2.868152513042485e-09</v>
+        <v>2.921005546765732e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>2.927381668788947e-09</v>
+        <v>2.957890247936747e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.866387456587808e-09</v>
+        <v>2.874956321853626e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.739934839277821e-09</v>
+        <v>2.719764707633661e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.652448318523015e-09</v>
+        <v>2.648752477393654e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>2.547500826550326e-09</v>
+        <v>2.550924946711085e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>2.442425270227758e-09</v>
+        <v>2.448200661671439e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>2.358389343381395e-09</v>
+        <v>2.372616693818009e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.28857837767567e-09</v>
+        <v>2.311922975050644e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.223146301429013e-09</v>
+        <v>2.249071694229414e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.152440754814062e-09</v>
+        <v>2.168284837206114e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.068785867493702e-09</v>
+        <v>2.066740439526176e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.965661267459704e-09</v>
+        <v>1.949190922453933e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.836803328378201e-09</v>
+        <v>1.820470762829936e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.685363520075637e-09</v>
+        <v>1.684901279278893e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.526723295245516e-09</v>
+        <v>1.546137210277837e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.37708140058754e-09</v>
+        <v>1.407788748701179e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.250854575129949e-09</v>
+        <v>1.274385927459884e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.150707427893439e-09</v>
+        <v>1.156525015807479e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.074536398015039e-09</v>
+        <v>1.067205506525522e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.01890298054945e-09</v>
+        <v>1.011281658569215e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>9.776415195504336e-10</v>
+        <v>9.76783678250894e-10</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>9.443965734043544e-10</v>
+        <v>9.500211337258951e-10</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>9.157242564064243e-10</v>
+        <v>9.243899249887445e-10</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>8.90850934649135e-10</v>
+        <v>8.997849824227148e-10</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>8.691018018776687e-10</v>
+        <v>8.763417695018872e-10</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>8.498020518372354e-10</v>
+        <v>8.541957497003723e-10</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>8.322768782730162e-10</v>
+        <v>8.33482386492251e-10</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>8.158766082621369e-10</v>
+        <v>8.143261852797613e-10</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>8.002968422072783e-10</v>
+        <v>7.967011131314274e-10</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>7.854840532418994e-10</v>
+        <v>7.804717572127908e-10</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>7.713903618931121e-10</v>
+        <v>7.655002424394036e-10</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>7.5796788868803e-10</v>
+        <v>7.51648693726821e-10</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>7.451687541537842e-10</v>
+        <v>7.387792359906157e-10</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>7.329450788174881e-10</v>
+        <v>7.267539941463425e-10</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>7.21248983206261e-10</v>
+        <v>7.154350931095618e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>7.100325878472169e-10</v>
+        <v>7.046846577958297e-10</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>6.992536143983217e-10</v>
+        <v>6.943823334147774e-10</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>6.88897532522308e-10</v>
+        <v>6.844945607209937e-10</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>6.789583888167214e-10</v>
+        <v>6.750146090550178e-10</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>6.694302323900715e-10</v>
+        <v>6.659357556116353e-10</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>6.603071123508547e-10</v>
+        <v>6.572512775856204e-10</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>6.515830778075718e-10</v>
+        <v>6.48954452171751e-10</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>6.432521778687203e-10</v>
+        <v>6.410385565648013e-10</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>6.353084616428082e-10</v>
+        <v>6.334968679595567e-10</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>6.277459782383327e-10</v>
+        <v>6.263226635507914e-10</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>6.205587767637915e-10</v>
+        <v>6.195092205332803e-10</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>6.137409063276919e-10</v>
+        <v>6.130498161018076e-10</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>6.072864160385317e-10</v>
+        <v>6.069377274511483e-10</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>6.011893550048114e-10</v>
+        <v>6.011662317760798e-10</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>5.954437723350294e-10</v>
+        <v>5.957286062713781e-10</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>5.900437171376921e-10</v>
+        <v>5.906181281318258e-10</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>5.849832385212975e-10</v>
+        <v>5.858280745521988e-10</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>5.802563855943442e-10</v>
+        <v>5.813517227272728e-10</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>5.758572074653379e-10</v>
+        <v>5.771823498518298e-10</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>5.717797532427765e-10</v>
+        <v>5.733132331206454e-10</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>5.680180720351614e-10</v>
+        <v>5.697376497284983e-10</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>5.645662129509918e-10</v>
+        <v>5.664488768701643e-10</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>5.614182250987717e-10</v>
+        <v>5.634401917404246e-10</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>5.585681575870006e-10</v>
+        <v>5.60704871534056e-10</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>5.560100595241779e-10</v>
+        <v>5.582361934458349e-10</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>5.53737980018807e-10</v>
+        <v>5.560274346705413e-10</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>5.517459681793873e-10</v>
+        <v>5.540718724029525e-10</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>5.500280731144199e-10</v>
+        <v>5.523627838378463e-10</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>5.485783439324051e-10</v>
+        <v>5.508934461700001e-10</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>5.473908297418449e-10</v>
+        <v>5.496571365941929e-10</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>5.464595796512398e-10</v>
+        <v>5.486471323052023e-10</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>5.457786427690902e-10</v>
+        <v>5.478567104978062e-10</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>5.453420682038971e-10</v>
+        <v>5.472791483667822e-10</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>5.451439050641617e-10</v>
+        <v>5.469077231069086e-10</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>5.451782024583847e-10</v>
+        <v>5.467357119129636e-10</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>5.45439008471107e-10</v>
+        <v>5.467563912864368e-10</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>5.459167125396326e-10</v>
+        <v>5.469605605856894e-10</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>5.465898280039102e-10</v>
+        <v>5.473309782755318e-10</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>5.474344627101656e-10</v>
+        <v>5.478487741444185e-10</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>5.484267245046229e-10</v>
+        <v>5.484950779808035e-10</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>5.495427212335073e-10</v>
+        <v>5.492510195731411e-10</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>5.507585607430444e-10</v>
+        <v>5.500977287098859e-10</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>5.520503508794597e-10</v>
+        <v>5.510163351794923e-10</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>5.533941994889771e-10</v>
+        <v>5.519879687704141e-10</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>5.547662144178225e-10</v>
+        <v>5.529937592711061e-10</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>5.561425035122207e-10</v>
+        <v>5.540148364700222e-10</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>5.574991746183976e-10</v>
+        <v>5.550323301556176e-10</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>5.588123355825772e-10</v>
+        <v>5.560273701163455e-10</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>5.600580942509849e-10</v>
+        <v>5.569810861406605e-10</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>5.612125584698465e-10</v>
+        <v>5.578746080170177e-10</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>5.622518360853861e-10</v>
+        <v>5.586890655338705e-10</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>5.631520349438293e-10</v>
+        <v>5.594055884796735e-10</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>5.638892628914013e-10</v>
+        <v>5.600053066428811e-10</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>5.644396277743274e-10</v>
+        <v>5.60469349811948e-10</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>5.64779237438832e-10</v>
+        <v>5.607788477753277e-10</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>5.648841997311408e-10</v>
+        <v>5.609149303214751e-10</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>5.647306224974786e-10</v>
+        <v>5.608587272388443e-10</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>5.642946135840707e-10</v>
+        <v>5.605913683158897e-10</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>5.635522808371423e-10</v>
+        <v>5.600939833410657e-10</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>5.624797321029181e-10</v>
+        <v>5.593477021028264e-10</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>5.610530752276231e-10</v>
+        <v>5.58333654389626e-10</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>5.592484180574833e-10</v>
+        <v>5.570329699899194e-10</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>5.570458432601462e-10</v>
+        <v>5.554281949078059e-10</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>5.544466704534288e-10</v>
+        <v>5.535094418020542e-10</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>5.514592827979745e-10</v>
+        <v>5.512693400482372e-10</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>5.480920682113124e-10</v>
+        <v>5.487005207167889e-10</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>5.443534146109718e-10</v>
+        <v>5.457956148781435e-10</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>5.4025170991448e-10</v>
+        <v>5.425472536027337e-10</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>5.35795342039371e-10</v>
+        <v>5.389480679609972e-10</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>5.309926989031718e-10</v>
+        <v>5.34990689023367e-10</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>5.258521684234098e-10</v>
+        <v>5.306677478602753e-10</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>5.203821385176194e-10</v>
+        <v>5.259718755421606e-10</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>5.145909971033277e-10</v>
+        <v>5.208957031394555e-10</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>5.084871320980645e-10</v>
+        <v>5.154318617225945e-10</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>5.020789314193562e-10</v>
+        <v>5.095729823620091e-10</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.953747829847378e-10</v>
+        <v>5.03311696128139e-10</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.883830747117367e-10</v>
+        <v>4.966406340914165e-10</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>4.811121945178787e-10</v>
+        <v>4.895524273222725e-10</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>4.735705303206998e-10</v>
+        <v>4.820397068911476e-10</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>4.657648026309098e-10</v>
+        <v>4.74095993177788e-10</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>4.576840197653602e-10</v>
+        <v>4.657242533381095e-10</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>4.493065094507755e-10</v>
+        <v>4.569331510072429e-10</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>4.406104521303928e-10</v>
+        <v>4.477314283737977e-10</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>4.315740282474378e-10</v>
+        <v>4.381278276263719e-10</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>4.221754182451399e-10</v>
+        <v>4.281310909535675e-10</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>4.123928025667241e-10</v>
+        <v>4.177499605439817e-10</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>4.022043616554286e-10</v>
+        <v>4.069931785862256e-10</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>3.915882759544786e-10</v>
+        <v>3.958694872688965e-10</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>3.805227259070985e-10</v>
+        <v>3.843876287805912e-10</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>3.689858919565277e-10</v>
+        <v>3.725563453099218e-10</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>3.569559545459907e-10</v>
+        <v>3.603843790454853e-10</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>3.444110941187113e-10</v>
+        <v>3.478804721758775e-10</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>3.313448419528924e-10</v>
+        <v>3.350659476722162e-10</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>3.179387715327434e-10</v>
+        <v>3.22116238565505e-10</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>3.045004878927064e-10</v>
+        <v>3.093100670906286e-10</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>2.91339918910025e-10</v>
+        <v>2.969280591691541e-10</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>2.787669924619609e-10</v>
+        <v>2.852508407226645e-10</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>2.670916364257574e-10</v>
+        <v>2.745590376727262e-10</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>2.566237786786642e-10</v>
+        <v>2.651332759409113e-10</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>2.476733470979269e-10</v>
+        <v>2.572541814487886e-10</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.405502695608035e-10</v>
+        <v>2.512023801179375e-10</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>2.355644739445389e-10</v>
+        <v>2.472584978699259e-10</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.330258881263821e-10</v>
+        <v>2.457031606263258e-10</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.33244439983585e-10</v>
+        <v>2.468169943087108e-10</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.365300573933955e-10</v>
+        <v>2.508806248386516e-10</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.431651825887643e-10</v>
+        <v>2.581475125187279e-10</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.530412316391118e-10</v>
+        <v>2.684846443471597e-10</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.657586352423345e-10</v>
+        <v>2.814714099986579e-10</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>2.809108959018015e-10</v>
+        <v>2.96680351620884e-10</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>2.980915161208866e-10</v>
+        <v>3.136840113615036e-10</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>3.168939984029399e-10</v>
+        <v>3.320549313681588e-10</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>3.369118452513343e-10</v>
+        <v>3.513656537885144e-10</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>3.577385591694356e-10</v>
+        <v>3.711887207702281e-10</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>3.78967642660619e-10</v>
+        <v>3.910966744609663e-10</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>4.001925982282306e-10</v>
+        <v>4.106620570083685e-10</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>4.210069283756461e-10</v>
+        <v>4.294574105601014e-10</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>4.410041356062394e-10</v>
+        <v>4.470552772638298e-10</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>4.597777224233582e-10</v>
+        <v>4.630281992671956e-10</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>4.769211913303775e-10</v>
+        <v>4.769487187178645e-10</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>4.920555373658946e-10</v>
+        <v>4.884810513779698e-10</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>5.051864675322547e-10</v>
+        <v>4.985722316348163e-10</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>5.166027727412841e-10</v>
+        <v>5.091132346568892e-10</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>5.266032355511511e-10</v>
+        <v>5.220165830225489e-10</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>5.373254580912608e-10</v>
+        <v>5.390095668310958e-10</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>5.556874092337922e-10</v>
+        <v>5.612975965657596e-10</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>5.834895234384866e-10</v>
+        <v>5.878157332820512e-10</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>6.128897878080897e-10</v>
+        <v>6.139275831873175e-10</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>6.361492368825776e-10</v>
+        <v>6.351576730784474e-10</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>6.512206991844332e-10</v>
+        <v>6.498438313796873e-10</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>6.580854648715708e-10</v>
+        <v>6.573265008821489e-10</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>6.567273116306227e-10</v>
+        <v>6.569473538958928e-10</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>6.472264184377682e-10</v>
+        <v>6.481645753310841e-10</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>6.31563875695669e-10</v>
+        <v>6.327338311161396e-10</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>6.134609752086641e-10</v>
+        <v>6.145140307249628e-10</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>5.967031894266804e-10</v>
+        <v>5.974416536922842e-10</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>5.850759907996677e-10</v>
+        <v>5.854531795528574e-10</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>5.823648517775515e-10</v>
+        <v>5.824850878414112e-10</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>5.923552448102653e-10</v>
+        <v>5.924738580926832e-10</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>6.188326423477584e-10</v>
+        <v>6.193559698414265e-10</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>6.655825168399423e-10</v>
+        <v>6.670679026223561e-10</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>7.339840482772461e-10</v>
+        <v>7.370078653181762e-10</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>7.9747563180411e-10</v>
+        <v>8.011008106040192e-10</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>8.204523801916782e-10</v>
+        <v>8.216819354748552e-10</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>8.115060271760446e-10</v>
+        <v>8.074566644226943e-10</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>7.927243436300828e-10</v>
+        <v>7.813230557122801e-10</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>7.75813102548596e-10</v>
+        <v>7.5649009379289e-10</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>7.592466330648645e-10</v>
+        <v>7.338178153421258e-10</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>7.406407088665222e-10</v>
+        <v>7.133649645657864e-10</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>7.17611426906136e-10</v>
+        <v>6.951903436176509e-10</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>6.894815969255517e-10</v>
+        <v>6.796586974164706e-10</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>6.612646748143612e-10</v>
+        <v>6.681548675415008e-10</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>6.391587125706082e-10</v>
+        <v>6.622760444868588e-10</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>6.293617621923366e-10</v>
+        <v>6.636194187466655e-10</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>6.373517752761852e-10</v>
+        <v>6.734452434864072e-10</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>6.589227445500522e-10</v>
+        <v>6.884826159030744e-10</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>6.829352152016795e-10</v>
+        <v>7.022164504549916e-10</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>6.980990570545875e-10</v>
+        <v>7.080611601056735e-10</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>6.955412156642878e-10</v>
+        <v>7.008563719013234e-10</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>6.767659342856842e-10</v>
+        <v>6.815606236966369e-10</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>6.46061836902541e-10</v>
+        <v>6.527742465983142e-10</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>6.07717581547527e-10</v>
+        <v>6.17097591789776e-10</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>5.660218245427739e-10</v>
+        <v>5.771310128237756e-10</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>5.250774012566313e-10</v>
+        <v>5.35732249901593e-10</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>4.882900716022057e-10</v>
+        <v>4.967245851162987e-10</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>4.58902168948132e-10</v>
+        <v>4.641576679844813e-10</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>4.401560266630642e-10</v>
+        <v>4.420811480227474e-10</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>4.350577517493722e-10</v>
+        <v>4.342749664082519e-10</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>4.42904812656126e-10</v>
+        <v>4.402847751421799e-10</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>4.600480708087582e-10</v>
+        <v>4.562919765026103e-10</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>4.827570996094285e-10</v>
+        <v>4.783851632386967e-10</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>5.073014724602636e-10</v>
+        <v>5.026529280995606e-10</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>5.299507627634211e-10</v>
+        <v>5.251838638343539e-10</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>5.4697454392105e-10</v>
+        <v>5.420665631922194e-10</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>5.546423893352996e-10</v>
+        <v>5.493896189223004e-10</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>5.492397951415833e-10</v>
+        <v>5.43258450153867e-10</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>5.291262723386189e-10</v>
+        <v>5.219701953584206e-10</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>4.967711754988488e-10</v>
+        <v>4.88165078398726e-10</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>4.551276738594567e-10</v>
+        <v>4.449945952492049e-10</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>4.071489366575842e-10</v>
+        <v>3.956102418842348e-10</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>3.557881331303852e-10</v>
+        <v>3.431635142782057e-10</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>3.039984325149903e-10</v>
+        <v>2.908059084054848e-10</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.547330040486007e-10</v>
+        <v>2.416889202405101e-10</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>2.109450169683468e-10</v>
+        <v>1.98964045757648e-10</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.755814510292125e-10</v>
+        <v>1.6577584598316e-10</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.503093971872249e-10</v>
+        <v>1.438348423594119e-10</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.339560380634322e-10</v>
+        <v>1.31669607263916e-10</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.249667184304905e-10</v>
+        <v>1.27380886383561e-10</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.217867830610552e-10</v>
+        <v>1.290694254052372e-10</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.228615767277847e-10</v>
+        <v>1.348359700158309e-10</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.266364442033322e-10</v>
+        <v>1.4278126590223e-10</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.31556730260356e-10</v>
+        <v>1.510060587513267e-10</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.360677796715071e-10</v>
+        <v>1.576110942500013e-10</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.38705968063261e-10</v>
+        <v>1.608116402880854e-10</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.393921672998211e-10</v>
+        <v>1.605647429817591e-10</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.39124613654331e-10</v>
+        <v>1.581828366513732e-10</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.38929933962247e-10</v>
+        <v>1.550140726253337e-10</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.398347550590252e-10</v>
+        <v>1.524066022320427e-10</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.428657037801233e-10</v>
+        <v>1.517085767999038e-10</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.49049406960995e-10</v>
+        <v>1.542681476573209e-10</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.594124914370969e-10</v>
+        <v>1.614334661326965e-10</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.749815840438848e-10</v>
+        <v>1.745526835544335e-10</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.964027484139795e-10</v>
+        <v>1.945126123131031e-10</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>2.227525810097936e-10</v>
+        <v>2.202974732931503e-10</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>2.527031441037899e-10</v>
+        <v>2.504010895367704e-10</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>2.849264995542994e-10</v>
+        <v>2.833172835841285e-10</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>3.180947092196678e-10</v>
+        <v>3.17539877975405e-10</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>3.508798349581954e-10</v>
+        <v>3.515626952507334e-10</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>3.819539386282281e-10</v>
+        <v>3.838795579502943e-10</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>4.099890820881083e-10</v>
+        <v>4.129842886142645e-10</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>4.336696962676238e-10</v>
+        <v>4.373834855870297e-10</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>4.540000598797579e-10</v>
+        <v>4.579798786609285e-10</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>4.770191738704674e-10</v>
+        <v>4.808764768714134e-10</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>5.094259157955544e-10</v>
+        <v>5.128578646176634e-10</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>5.57919163210848e-10</v>
+        <v>5.607086262988843e-10</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>6.291977936721683e-10</v>
+        <v>6.312133463142726e-10</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>7.299606847353879e-10</v>
+        <v>7.311566090630775e-10</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>8.669067139562391e-10</v>
+        <v>8.673229989444086e-10</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.04673475889058e-09</v>
+        <v>1.0464971003575e-09</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.275997376001365e-09</v>
+        <v>1.275316559565124e-09</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.553050423688397e-09</v>
+        <v>1.552187758870383e-09</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.863868992045295e-09</v>
+        <v>1.863084101934676e-09</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>2.193400159764805e-09</v>
+        <v>2.192946645841676e-09</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>2.526591005539709e-09</v>
+        <v>2.526716447675091e-09</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>2.848388608062331e-09</v>
+        <v>2.849334564518173e-09</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>3.143740046025455e-09</v>
+        <v>3.145742053454634e-09</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>3.397592398121815e-09</v>
+        <v>3.400879971568134e-09</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>3.594892743043808e-09</v>
+        <v>3.599689375941998e-09</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>3.72357847815226e-09</v>
+        <v>3.730093587192999e-09</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>3.787237129198361e-09</v>
+        <v>3.795623896982992e-09</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>3.794558881330018e-09</v>
+        <v>3.804900511143116e-09</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>3.754236727858671e-09</v>
+        <v>3.766546436103584e-09</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>3.674963662095788e-09</v>
+        <v>3.68918467829464e-09</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>3.565432677352816e-09</v>
+        <v>3.581438244146504e-09</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>3.434336766941138e-09</v>
+        <v>3.451930140089336e-09</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>3.290368924172325e-09</v>
+        <v>3.30928337255348e-09</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>3.142222022140395e-09</v>
+        <v>3.16212082922624e-09</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>2.996977615045661e-09</v>
+        <v>3.017473842335263e-09</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>2.856066483751781e-09</v>
+        <v>2.876792279638087e-09</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>2.719681381072176e-09</v>
+        <v>2.740303165723051e-09</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>2.58801505982033e-09</v>
+        <v>2.608233525178555e-09</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>2.461260272809673e-09</v>
+        <v>2.480810382592949e-09</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>2.339609772853805e-09</v>
+        <v>2.358260762554751e-09</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>2.223256312766153e-09</v>
+        <v>2.240811689652304e-09</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>2.112392645360202e-09</v>
+        <v>2.128690188474012e-09</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>2.007211523449391e-09</v>
+        <v>2.022123283608232e-09</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.907905699847301e-09</v>
+        <v>1.921337999643464e-09</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.814667927367368e-09</v>
+        <v>1.826561361168059e-09</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.727690958823039e-09</v>
+        <v>1.738020392770385e-09</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.64716754702788e-09</v>
+        <v>1.655942119038924e-09</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.573290444795333e-09</v>
+        <v>1.580553564562037e-09</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.506252404938857e-09</v>
+        <v>1.512081753928099e-09</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.446246180271996e-09</v>
+        <v>1.450753711725576e-09</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.393464523608205e-09</v>
+        <v>1.396796462542836e-09</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.34803647806356e-09</v>
+        <v>1.350368950016618e-09</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.309665491003302e-09</v>
+        <v>1.311175321027099e-09</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.27788063076261e-09</v>
+        <v>1.278733378918064e-09</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.252210438854835e-09</v>
+        <v>1.252560364065139e-09</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.232183456793346e-09</v>
+        <v>1.232173516843965e-09</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.217328226091505e-09</v>
+        <v>1.217090077630178e-09</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.207173288262696e-09</v>
+        <v>1.206827286799434e-09</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.201247184820279e-09</v>
+        <v>1.200902384727367e-09</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.199078457277622e-09</v>
+        <v>1.198832611789619e-09</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.200195647148097e-09</v>
+        <v>1.200135208361834e-09</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.204127295945071e-09</v>
+        <v>1.204327414819652e-09</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.210401945181915e-09</v>
+        <v>1.210926471538718e-09</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.218548136371993e-09</v>
+        <v>1.219449618894669e-09</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.228094411028676e-09</v>
+        <v>1.229414097263149e-09</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.238569310665337e-09</v>
+        <v>1.240337147019806e-09</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.249501376795331e-09</v>
+        <v>1.251736008540265e-09</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.260419150932047e-09</v>
+        <v>1.263127922200191e-09</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.270851174588843e-09</v>
+        <v>1.274030128375213e-09</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.280325989279079e-09</v>
+        <v>1.283959867440965e-09</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.28837213651614e-09</v>
+        <v>1.292434379773107e-09</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.294518157813382e-09</v>
+        <v>1.298970905747266e-09</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.298292594684184e-09</v>
+        <v>1.303086685739095e-09</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.299223988641908e-09</v>
+        <v>1.30429896012423e-09</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.296840881199926e-09</v>
+        <v>1.302124969278314e-09</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.290671813871602e-09</v>
+        <v>1.296081953576986e-09</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.280245328170305e-09</v>
+        <v>1.285687153395889e-09</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.265135210369119e-09</v>
+        <v>1.270504108867273e-09</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.24544277031924e-09</v>
+        <v>1.250636184258314e-09</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.221610394660631e-09</v>
+        <v>1.226535773699642e-09</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.194086187940109e-09</v>
+        <v>1.198661122556312e-09</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.163318254704413e-09</v>
+        <v>1.1674704761933e-09</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.129754699500356e-09</v>
+        <v>1.133422079975659e-09</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.093843626874759e-09</v>
+        <v>1.096974179268449e-09</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.056033141374347e-09</v>
+        <v>1.058585019436631e-09</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.01677134754594e-09</v>
+        <v>1.018712845845266e-09</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>9.765063499363653e-10</v>
+        <v>9.778159038594179e-10</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>9.356862530923379e-10</v>
+        <v>9.363524388440408e-10</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>8.947591615607202e-10</v>
+        <v>8.947806961642359e-10</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>8.541731798882271e-10</v>
+        <v>8.535589211849556e-10</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>8.143764126216849e-10</v>
+        <v>8.131453592712651e-10</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>7.758169643079169e-10</v>
+        <v>7.739982557882268e-10</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>7.389429394936422e-10</v>
+        <v>7.36575856100797e-10</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>7.04202442725686e-10</v>
+        <v>7.013364055740397e-10</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>6.720350018250065e-10</v>
+        <v>6.687293681292662e-10</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>6.426323367099206e-10</v>
+        <v>6.389504848578458e-10</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>6.159065300757087e-10</v>
+        <v>6.119091849666997e-10</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>5.917546928739944e-10</v>
+        <v>5.874995685585142e-10</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>5.700739360563367e-10</v>
+        <v>5.656157357359108e-10</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>5.507613705743772e-10</v>
+        <v>5.461517866015942e-10</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>5.337141073796845e-10</v>
+        <v>5.290018212581951e-10</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>5.188292574238793e-10</v>
+        <v>5.140599398083973e-10</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>5.060039316585751e-10</v>
+        <v>5.012202423548766e-10</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>4.951352410353514e-10</v>
+        <v>4.903768290002756e-10</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>4.861202965058231e-10</v>
+        <v>4.814237998472716e-10</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>4.78856209021599e-10</v>
+        <v>4.742552549985361e-10</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>4.732400895342686e-10</v>
+        <v>4.687652945567214e-10</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>4.691690489954419e-10</v>
+        <v>4.648480186245002e-10</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>4.665401983567233e-10</v>
+        <v>4.623975273045393e-10</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>4.652506485697107e-10</v>
+        <v>4.613079206994996e-10</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>4.651975105860097e-10</v>
+        <v>4.614732989120493e-10</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>4.662778953572218e-10</v>
+        <v>4.627877620448524e-10</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>4.683889138349514e-10</v>
+        <v>4.651454102005762e-10</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>4.714276769707975e-10</v>
+        <v>4.684403434818823e-10</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>4.752912957163686e-10</v>
+        <v>4.725666619914418e-10</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>4.798768810232648e-10</v>
+        <v>4.774184658319178e-10</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>4.850815438430839e-10</v>
+        <v>4.828898551059701e-10</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>4.908023951274379e-10</v>
+        <v>4.888749299162743e-10</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>4.969365458279251e-10</v>
+        <v>4.952677903654906e-10</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>5.033811068961422e-10</v>
+        <v>5.019625365562786e-10</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>5.100331892837037e-10</v>
+        <v>5.088532685913158e-10</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>5.167899039422063e-10</v>
+        <v>5.158340865732613e-10</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>5.235483618232468e-10</v>
+        <v>5.227990906047743e-10</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>5.302056738784401e-10</v>
+        <v>5.29642380788533e-10</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>5.366589510593825e-10</v>
+        <v>5.36258057227196e-10</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>5.428053043176714e-10</v>
+        <v>5.425402200234233e-10</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>5.485418446049209e-10</v>
+        <v>5.483829692798919e-10</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>5.537656828727232e-10</v>
+        <v>5.536804050992566e-10</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>5.583739300726903e-10</v>
+        <v>5.583266275841921e-10</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>5.622821740477002e-10</v>
+        <v>5.622345388035247e-10</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>5.656882898026857e-10</v>
+        <v>5.656042944332753e-10</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>5.690104722041152e-10</v>
+        <v>5.688602462287415e-10</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>5.726727604125185e-10</v>
+        <v>5.724326930614071e-10</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>5.770991935884244e-10</v>
+        <v>5.767519338027551e-10</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>5.827138108923736e-10</v>
+        <v>5.822482673242801e-10</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>5.899406514848957e-10</v>
+        <v>5.89351992497466e-10</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>5.992037545265145e-10</v>
+        <v>5.984934081937907e-10</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>6.109271591777796e-10</v>
+        <v>6.101028132847577e-10</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>6.255349045992024e-10</v>
+        <v>6.246105066418326e-10</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>6.434510299513413e-10</v>
+        <v>6.424467871365282e-10</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>6.650995743947183e-10</v>
+        <v>6.6404195364032e-10</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>6.909045770898411e-10</v>
+        <v>6.898263050246704e-10</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>7.212900771972892e-10</v>
+        <v>7.202301401611126e-10</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>7.566801138775742e-10</v>
+        <v>7.556837579211125e-10</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>7.974987262911898e-10</v>
+        <v>7.966174571761178e-10</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>8.441699535987429e-10</v>
+        <v>8.434615367976895e-10</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>8.971178349607321e-10</v>
+        <v>8.966462956572805e-10</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>9.567664095376335e-10</v>
+        <v>9.566020326263203e-10</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.023539716490087e-09</v>
+        <v>1.023759046576405e-09</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.097861794978577e-09</v>
+        <v>1.098547636378969e-09</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.180156684163557e-09</v>
+        <v>1.181398100905424e-09</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.270631895247846e-09</v>
+        <v>1.27252243804828e-09</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.367166377778883e-09</v>
+        <v>1.369785016810281e-09</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.466221734448127e-09</v>
+        <v>1.46962125351077e-09</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.564239484753031e-09</v>
+        <v>1.56844631682551e-09</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.657661148190699e-09</v>
+        <v>1.662675375429914e-09</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.742928244258574e-09</v>
+        <v>1.748723597999736e-09</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.816482292453844e-09</v>
+        <v>1.823006153210473e-09</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.874764812273734e-09</v>
+        <v>1.88193820973766e-09</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.914217323215627e-09</v>
+        <v>1.92193493625699e-09</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.931281344776735e-09</v>
+        <v>1.939411501443985e-09</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.922398396454352e-09</v>
+        <v>1.930783073974246e-09</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.884009997745736e-09</v>
+        <v>1.892464822523347e-09</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.812557668148158e-09</v>
+        <v>1.820871915766862e-09</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.705728392971431e-09</v>
+        <v>1.713671289560627e-09</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.569770226635524e-09</v>
+        <v>1.577134263142228e-09</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.414530157875632e-09</v>
+        <v>1.421149298680283e-09</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.249867629754406e-09</v>
+        <v>1.255617375682876e-09</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.085642085334923e-09</v>
+        <v>1.090439473658515e-09</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>9.317129676802521e-10</v>
+        <v>9.355165721157046e-10</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>7.979397198530507e-10</v>
+        <v>8.007496505625313e-10</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>6.941817849164044e-10</v>
+        <v>6.960396885075135e-10</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>6.302986059332899e-10</v>
+        <v>6.312876654590623e-10</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>6.138855443311294e-10</v>
+        <v>6.141231038897908e-10</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>6.421985221202566e-10</v>
+        <v>6.418024054266256e-10</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>7.095436380923196e-10</v>
+        <v>7.086225392276237e-10</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>8.102267684439771e-10</v>
+        <v>8.088802511307322e-10</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>9.385537893715927e-10</v>
+        <v>9.36872286973604e-10</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.088830577071935e-09</v>
+        <v>1.086895392594297e-09</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.255363007741434e-09</v>
+        <v>1.253246313830531e-09</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.432456957576459e-09</v>
+        <v>1.430221796519965e-09</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.614418302773869e-09</v>
+        <v>1.612118586500745e-09</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.795552919530041e-09</v>
+        <v>1.793233429610539e-09</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.970166684041356e-09</v>
+        <v>1.967863071687017e-09</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>2.132565472504665e-09</v>
+        <v>2.13030425856832e-09</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>2.277055161116342e-09</v>
+        <v>2.274853736092109e-09</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>2.397941626072824e-09</v>
+        <v>2.395808250096113e-09</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>2.489530743570865e-09</v>
+        <v>2.487464546418374e-09</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.54612838980688e-09</v>
+        <v>2.544119370896595e-09</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.562040440977406e-09</v>
+        <v>2.560069469368605e-09</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.532760233766336e-09</v>
+        <v>2.530800613413593e-09</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.461741926648595e-09</v>
+        <v>2.459769889978923e-09</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.355711961575774e-09</v>
+        <v>2.353710982857266e-09</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.221406840161069e-09</v>
+        <v>2.219367648763066e-09</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>2.065563064018103e-09</v>
+        <v>2.063483644411194e-09</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.894917134759981e-09</v>
+        <v>1.892802726516007e-09</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.716205554000231e-09</v>
+        <v>1.714068651792279e-09</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.536164823352405e-09</v>
+        <v>1.534025176954812e-09</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.361531444429568e-09</v>
+        <v>1.359416058717918e-09</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.199041918845275e-09</v>
+        <v>1.196985053796403e-09</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.055428388591715e-09</v>
+        <v>1.053471551510246e-09</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>9.350082306216023e-10</v>
+        <v>9.331958704738134e-10</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>8.356782642536967e-10</v>
+        <v>8.340463234408152e-10</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>7.542800052213811e-10</v>
+        <v>7.528540379120759e-10</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>6.876549692578269e-10</v>
+        <v>6.864501413882102e-10</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>6.326446720964766e-10</v>
+        <v>6.316657613701015e-10</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>5.860906294705494e-10</v>
+        <v>5.85332025358412e-10</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>5.448445019176714e-10</v>
+        <v>5.442902430381429e-10</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>5.067658030280552e-10</v>
+        <v>5.063932907207534e-10</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>4.715631906727383e-10</v>
+        <v>4.713500024262068e-10</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>4.39143410173477e-10</v>
+        <v>4.390680295057754e-10</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>4.094132068520182e-10</v>
+        <v>4.094550233107217e-10</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>3.822793260300292e-10</v>
+        <v>3.824186351922294e-10</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>3.576485130292593e-10</v>
+        <v>3.578665165015633e-10</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>3.354275131714484e-10</v>
+        <v>3.357063185899794e-10</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>3.155230717782776e-10</v>
+        <v>3.158456928086746e-10</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>2.97841934171489e-10</v>
+        <v>2.98192290508907e-10</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>2.822908456728168e-10</v>
+        <v>2.826537630419266e-10</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.68776551603954e-10</v>
+        <v>2.691377617589425e-10</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>2.572057972866368e-10</v>
+        <v>2.575519380112064e-10</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>2.47485328042594e-10</v>
+        <v>2.478039431499636e-10</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>2.395218891935293e-10</v>
+        <v>2.398014285264332e-10</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>2.332222260611785e-10</v>
+        <v>2.33452045491867e-10</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.284930839672509e-10</v>
+        <v>2.286634453974905e-10</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.252412082334744e-10</v>
+        <v>2.253432795945472e-10</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.233733441815709e-10</v>
+        <v>2.233991994342751e-10</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.227962371332583e-10</v>
+        <v>2.227388562679078e-10</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.2341663241026e-10</v>
+        <v>2.232699014466846e-10</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.251412753342947e-10</v>
+        <v>2.248999863218406e-10</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.27876911227087e-10</v>
+        <v>2.275367622446156e-10</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.315302854103567e-10</v>
+        <v>2.310878805662458e-10</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.360081432058205e-10</v>
+        <v>2.354609926379636e-10</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.412172299352077e-10</v>
+        <v>2.405637498110142e-10</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.4706429092023e-10</v>
+        <v>2.463038034366252e-10</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.534560714826192e-10</v>
+        <v>2.525888048660445e-10</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.602993169440912e-10</v>
+        <v>2.593264054505036e-10</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.675007726263606e-10</v>
+        <v>2.664242565412333e-10</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.749671838511615e-10</v>
+        <v>2.737900094894834e-10</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.826052959402084e-10</v>
+        <v>2.813313156464844e-10</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.903218542152156e-10</v>
+        <v>2.889558263634666e-10</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.98023603997918e-10</v>
+        <v>2.965711929916806e-10</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>3.0561729061003e-10</v>
+        <v>3.040850668823567e-10</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>3.130096593732658e-10</v>
+        <v>3.114050993867252e-10</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>3.201074556093599e-10</v>
+        <v>3.184389418560364e-10</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>3.26817424640021e-10</v>
+        <v>3.250942456415148e-10</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>3.330463117869819e-10</v>
+        <v>3.312786620944094e-10</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>3.387008623719579e-10</v>
+        <v>3.36899842565951e-10</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>3.436878491200254e-10</v>
+        <v>3.418654654658882e-10</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>3.479427113101992e-10</v>
+        <v>3.461115150176394e-10</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>3.514838278127088e-10</v>
+        <v>3.49655871323002e-10</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>3.543444902081808e-10</v>
+        <v>3.525311395324387e-10</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>3.565579900772498e-10</v>
+        <v>3.547699247964198e-10</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>3.581576190005414e-10</v>
+        <v>3.564048322654079e-10</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>3.591766685586844e-10</v>
+        <v>3.57468467089867e-10</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>3.596484303323092e-10</v>
+        <v>3.579934344202645e-10</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>3.596061959020439e-10</v>
+        <v>3.580123394070644e-10</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>3.590832568485182e-10</v>
+        <v>3.575577872007324e-10</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>3.581129047523601e-10</v>
+        <v>3.566623829517328e-10</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>3.567284311941988e-10</v>
+        <v>3.55358731810531e-10</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>3.549631277546652e-10</v>
+        <v>3.536794389275941e-10</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>3.528502860143849e-10</v>
+        <v>3.516571094533839e-10</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>3.504231975539909e-10</v>
+        <v>3.493243485383694e-10</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>3.477151539541078e-10</v>
+        <v>3.467137613330114e-10</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>3.447594467953663e-10</v>
+        <v>3.438579529877772e-10</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>3.415893676583989e-10</v>
+        <v>3.407895286531348e-10</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>3.382382081238284e-10</v>
+        <v>3.375410934795437e-10</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>3.347392597722869e-10</v>
+        <v>3.34145252617472e-10</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>3.311258141844063e-10</v>
+        <v>3.306346112173878e-10</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>3.274311629408096e-10</v>
+        <v>3.270417744297502e-10</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>3.236885976221287e-10</v>
+        <v>3.233993474050272e-10</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>3.199314098089961e-10</v>
+        <v>3.197399352936878e-10</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>3.161928910820339e-10</v>
+        <v>3.160961432461901e-10</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>3.12506333021878e-10</v>
+        <v>3.125005764130059e-10</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>3.089050272091507e-10</v>
+        <v>3.089858399445941e-10</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>3.05422265224484e-10</v>
+        <v>3.055845389914228e-10</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>3.020913386485103e-10</v>
+        <v>3.023292787039603e-10</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>2.989455390618522e-10</v>
+        <v>2.992526642326658e-10</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>2.960181580451422e-10</v>
+        <v>2.963873007280075e-10</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>2.933424871790113e-10</v>
+        <v>2.93765793340453e-10</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>2.909518180440837e-10</v>
+        <v>2.914207472204624e-10</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>2.888794422209911e-10</v>
+        <v>2.893847675185036e-10</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>2.871586512903637e-10</v>
+        <v>2.876904593850432e-10</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>2.858227368328274e-10</v>
+        <v>2.863704279705431e-10</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>2.849049904290138e-10</v>
+        <v>2.85457278425471e-10</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>2.8443870365955e-10</v>
+        <v>2.849836159002903e-10</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>2.844571675099408e-10</v>
+        <v>2.8498204496234e-10</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>2.849765924102753e-10</v>
+        <v>2.854684339772669e-10</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>2.859514398705376e-10</v>
+        <v>2.863981472840034e-10</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>2.873222221285115e-10</v>
+        <v>2.877128811745526e-10</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>2.890294514219764e-10</v>
+        <v>2.893543319409133e-10</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>2.910136399887175e-10</v>
+        <v>2.912641958750897e-10</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>2.932153000665152e-10</v>
+        <v>2.933841692690816e-10</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.955749438931493e-10</v>
+        <v>2.956559484148881e-10</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.98033083706406e-10</v>
+        <v>2.980212296045144e-10</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>3.005302317440653e-10</v>
+        <v>3.004217091299599e-10</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>3.030069002439067e-10</v>
+        <v>3.027990832832235e-10</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>3.054036014437167e-10</v>
+        <v>3.050950483563106e-10</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>3.076608475812749e-10</v>
+        <v>3.072513006412203e-10</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>3.097191508943618e-10</v>
+        <v>3.092095364299522e-10</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>3.115190236207627e-10</v>
+        <v>3.10911452014511e-10</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>3.130009779982565e-10</v>
+        <v>3.122987436868948e-10</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>3.141055262646279e-10</v>
+        <v>3.133131077391074e-10</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>3.147731806576573e-10</v>
+        <v>3.138962404631485e-10</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>3.149481889476278e-10</v>
+        <v>3.139935599966922e-10</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>3.146403822282004e-10</v>
+        <v>3.136158275063511e-10</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>3.13915542702371e-10</v>
+        <v>3.12829550265646e-10</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>3.128412464129906e-10</v>
+        <v>3.117030228154019e-10</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>3.114850694029076e-10</v>
+        <v>3.103045396964408e-10</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>3.099145877149723e-10</v>
+        <v>3.087023954495872e-10</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>3.081973773920367e-10</v>
+        <v>3.069648846156666e-10</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>3.064010144769476e-10</v>
+        <v>3.051603017354998e-10</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>3.045930750125579e-10</v>
+        <v>3.033569413499137e-10</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>3.028411350417145e-10</v>
+        <v>3.016230979997288e-10</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>3.012127706072689e-10</v>
+        <v>3.000270662257708e-10</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>2.997755577520724e-10</v>
+        <v>2.986371405688645e-10</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.985970725189723e-10</v>
+        <v>2.975216155698313e-10</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.9774489095082e-10</v>
+        <v>2.967487857694963e-10</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.972862682553888e-10</v>
+        <v>2.963866076949443e-10</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.972333847066432e-10</v>
+        <v>2.964450140296729e-10</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.974813596947005e-10</v>
+        <v>2.968106087131419e-10</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.979103377351811e-10</v>
+        <v>2.973542190017467e-10</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.984004633437063e-10</v>
+        <v>2.979466721518834e-10</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>2.988318810358964e-10</v>
+        <v>2.984587954199465e-10</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>2.99084735327373e-10</v>
+        <v>2.987614160623324e-10</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>2.990391707337563e-10</v>
+        <v>2.987253613354358e-10</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>2.985753317706671e-10</v>
+        <v>2.98221458495652e-10</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>2.975795633722891e-10</v>
+        <v>2.971274047767683e-10</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>2.961334204148657e-10</v>
+        <v>2.955371873089627e-10</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>2.945483185434076e-10</v>
+        <v>2.937994757520869e-10</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>2.931488620406693e-10</v>
+        <v>2.922775525928857e-10</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>2.922596551894101e-10</v>
+        <v>2.913347003181089e-10</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>2.92205302272387e-10</v>
+        <v>2.913342014145043e-10</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>2.933104075723577e-10</v>
+        <v>2.926393383688202e-10</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>2.958600513337767e-10</v>
+        <v>2.955696146464067e-10</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>2.994713882726046e-10</v>
+        <v>2.997047022768692e-10</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>3.032052161927989e-10</v>
+        <v>3.040080214541901e-10</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>3.061053564969329e-10</v>
+        <v>3.074241883667043e-10</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>3.072156305875828e-10</v>
+        <v>3.0889781920275e-10</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>3.058693921067926e-10</v>
+        <v>3.076881204168229e-10</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>3.02695482256459e-10</v>
+        <v>3.044619060480024e-10</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>2.986849312643559e-10</v>
+        <v>3.002795253847066e-10</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>2.948287862412844e-10</v>
+        <v>2.962013460595469e-10</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>2.919497674354441e-10</v>
+        <v>2.931089017767869e-10</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>2.901201847570607e-10</v>
+        <v>2.910864748303109e-10</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>2.892033124147221e-10</v>
+        <v>2.89996263675979e-10</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>2.890624157652201e-10</v>
+        <v>2.897004573653214e-10</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>2.895607601653465e-10</v>
+        <v>2.900612449498673e-10</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>2.905616109718938e-10</v>
+        <v>2.909408154811472e-10</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>2.919282335416524e-10</v>
+        <v>2.922013580106896e-10</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>2.935238932314171e-10</v>
+        <v>2.93705061590027e-10</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>2.952118553979769e-10</v>
+        <v>2.953141152706865e-10</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>2.968553853981272e-10</v>
+        <v>2.968907081042013e-10</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>2.983177485886583e-10</v>
+        <v>2.982970291420995e-10</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>2.994622103263621e-10</v>
+        <v>2.993952674359112e-10</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>3.001520359680304e-10</v>
+        <v>3.000476120371658e-10</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>3.002556126597554e-10</v>
+        <v>3.001214160231561e-10</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.99765009004399e-10</v>
+        <v>2.996087338580713e-10</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.987993328808468e-10</v>
+        <v>2.986297069022626e-10</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.974834856721979e-10</v>
+        <v>2.97310317796006e-10</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.959423687615525e-10</v>
+        <v>2.957765491795781e-10</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>2.943008835320066e-10</v>
+        <v>2.941543836932517e-10</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>2.926839313666605e-10</v>
+        <v>2.925698039773034e-10</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>2.912164136486143e-10</v>
+        <v>2.911487926720101e-10</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>2.900232317609638e-10</v>
+        <v>2.900173324176442e-10</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>2.892292870868098e-10</v>
+        <v>2.893014058544828e-10</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>2.889594810092507e-10</v>
+        <v>2.891269956228011e-10</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>2.89338714911385e-10</v>
+        <v>2.896200843628742e-10</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>2.904918901763106e-10</v>
+        <v>2.909066547149764e-10</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>2.925191389481871e-10</v>
+        <v>2.930860854543291e-10</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>2.953802762352222e-10</v>
+        <v>2.961070451078977e-10</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>2.989857635337879e-10</v>
+        <v>2.998651931387829e-10</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>3.032460077949515e-10</v>
+        <v>3.042561304246785e-10</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>3.080714159697707e-10</v>
+        <v>3.091754578432683e-10</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>3.133723950093013e-10</v>
+        <v>3.145187762722344e-10</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>3.190593518646135e-10</v>
+        <v>3.201816865892735e-10</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>3.250426934867636e-10</v>
+        <v>3.260597896720679e-10</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>3.312328328315317e-10</v>
+        <v>3.320486926325703e-10</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>3.386241564491451e-10</v>
+        <v>3.391694138088563e-10</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>3.52318946874177e-10</v>
+        <v>3.527079022349328e-10</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>3.783406151349782e-10</v>
+        <v>3.789061274256165e-10</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>4.193638451634202e-10</v>
+        <v>4.205086054212816e-10</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>4.72729916755912e-10</v>
+        <v>4.746895766660016e-10</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>5.353042070497144e-10</v>
+        <v>5.381262427706471e-10</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>6.039520931819458e-10</v>
+        <v>6.074958053459445e-10</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>6.755389522897044e-10</v>
+        <v>6.794754660025991e-10</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>7.469184490181132e-10</v>
+        <v>7.507334643925368e-10</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>8.141974634815614e-10</v>
+        <v>8.173666287009859e-10</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>8.722993035417222e-10</v>
+        <v>8.745661620915345e-10</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>9.160423569184908e-10</v>
+        <v>9.174429867771062e-10</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>9.40245011331585e-10</v>
+        <v>9.411080249704494e-10</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>9.405751859194673e-10</v>
+        <v>9.414882301184837e-10</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>9.209486244730466e-10</v>
+        <v>9.224331379079753e-10</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>8.899190859664418e-10</v>
+        <v>8.92247405014198e-10</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>8.560920157429469e-10</v>
+        <v>8.592853362957632e-10</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>8.280728591457615e-10</v>
+        <v>8.319012366111892e-10</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>8.136716841709818e-10</v>
+        <v>8.176749008988923e-10</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>8.117513583641023e-10</v>
+        <v>8.154736613506678e-10</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>8.15541265971051e-10</v>
+        <v>8.186791662673388e-10</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>8.181829477418567e-10</v>
+        <v>8.205875251055087e-10</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>8.128179444265587e-10</v>
+        <v>8.144948473217882e-10</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>7.926884192003392e-10</v>
+        <v>7.937961411397279e-10</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>7.55651376599175e-10</v>
+        <v>7.564222040917264e-10</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>7.060004832028849e-10</v>
+        <v>7.066302359850569e-10</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>6.485070847412002e-10</v>
+        <v>6.491469331517594e-10</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>5.879425269438797e-10</v>
+        <v>5.886989919239013e-10</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>5.290781555405158e-10</v>
+        <v>5.300131086333835e-10</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>4.766853162609101e-10</v>
+        <v>4.778159796123157e-10</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>4.354604555343447e-10</v>
+        <v>4.367600286961748e-10</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>4.074850484322192e-10</v>
+        <v>4.089045920677514e-10</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>3.916059724268382e-10</v>
+        <v>3.931014774333432e-10</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.864695210747011e-10</v>
+        <v>3.880035871942873e-10</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>3.907219879323537e-10</v>
+        <v>3.922638237519671e-10</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>4.030096665563088e-10</v>
+        <v>4.045350895077332e-10</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>4.219788505031162e-10</v>
+        <v>4.23470286862973e-10</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>4.462758333292951e-10</v>
+        <v>4.477223182190431e-10</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>4.745469085913453e-10</v>
+        <v>4.759440859772813e-10</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>5.054383698458454e-10</v>
+        <v>5.067884925391036e-10</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>5.375965106492694e-10</v>
+        <v>5.389084403058218e-10</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>5.696676245582027e-10</v>
+        <v>5.709568316788588e-10</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>6.002980051291435e-10</v>
+        <v>6.015865690595508e-10</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>6.281502263274216e-10</v>
+        <v>6.294665497682684e-10</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>6.523284845381626e-10</v>
+        <v>6.536995493480684e-10</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>6.724194926406205e-10</v>
+        <v>6.738623985292121e-10</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>6.880344428511111e-10</v>
+        <v>6.895559781145565e-10</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>6.987845273860139e-10</v>
+        <v>7.003811689070229e-10</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>7.042809384616641e-10</v>
+        <v>7.059388517094878e-10</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>7.041348682944155e-10</v>
+        <v>7.05829907324847e-10</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>6.979575091006195e-10</v>
+        <v>6.996552165559929e-10</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>6.853607333753046e-10</v>
+        <v>6.870163464666828e-10</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>6.664972757303134e-10</v>
+        <v>6.680604824323273e-10</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>6.430325368534829e-10</v>
+        <v>6.444607778797605e-10</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>6.168943383653764e-10</v>
+        <v>6.181551148270897e-10</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>5.900105018865676e-10</v>
+        <v>5.910813752924311e-10</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>5.643088490375556e-10</v>
+        <v>5.651774412938271e-10</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>5.41717201438932e-10</v>
+        <v>5.42381194849413e-10</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>5.24163380711204e-10</v>
+        <v>5.246305179772387e-10</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>5.135752084749429e-10</v>
+        <v>5.138632926954188e-10</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>5.118805063506946e-10</v>
+        <v>5.120174010220429e-10</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>5.210070959590041e-10</v>
+        <v>5.210307249751987e-10</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>5.42882798920426e-10</v>
+        <v>5.428411465729844e-10</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>5.794354368554697e-10</v>
+        <v>5.793865478334525e-10</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>6.325928313847487e-10</v>
+        <v>6.326048107747599e-10</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>7.039063585445627e-10</v>
+        <v>7.040556845470657e-10</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>7.902168992390595e-10</v>
+        <v>7.905673100462978e-10</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>8.851596382520771e-10</v>
+        <v>8.857477636533187e-10</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>9.823083192092301e-10</v>
+        <v>9.831434052025903e-10</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.075236685736471e-09</v>
+        <v>1.076300594528914e-09</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.157518481459485e-09</v>
+        <v>1.158765691466822e-09</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.22288943378687e-09</v>
+        <v>1.224250872339141e-09</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.266566055775932e-09</v>
+        <v>1.267984136051487e-09</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.284558454375499e-09</v>
+        <v>1.286005852660825e-09</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.343314059067925e-09</v>
+        <v>1.344886868293622e-09</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.602599671969001e-09</v>
+        <v>1.604611966654285e-09</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.94350782451856e-09</v>
+        <v>1.946077621406881e-09</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>2.216017725149386e-09</v>
+        <v>2.219022045346479e-09</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>2.285067199818669e-09</v>
+        <v>2.288166866145928e-09</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>2.173280025151871e-09</v>
+        <v>2.176181062923122e-09</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.997810639720996e-09</v>
+        <v>2.000420983084173e-09</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.876098608673423e-09</v>
+        <v>1.878528424442775e-09</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.850805495479319e-09</v>
+        <v>1.853232050412891e-09</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.84209666408943e-09</v>
+        <v>1.844543182630533e-09</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.809405679131478e-09</v>
+        <v>1.811816148502912e-09</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.755404062214418e-09</v>
+        <v>1.757724609816335e-09</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.684117491412563e-09</v>
+        <v>1.686298933456518e-09</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.599571644800367e-09</v>
+        <v>1.601569486309314e-09</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.505792200452331e-09</v>
+        <v>1.507566635260628e-09</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.406804836442694e-09</v>
+        <v>1.408320747196103e-09</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.306502269503369e-09</v>
+        <v>1.307729782125418e-09</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.206870188056021e-09</v>
+        <v>1.207792624308059e-09</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.108467313031545e-09</v>
+        <v>1.109087141155731e-09</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.011817954435156e-09</v>
+        <v>1.012156932652571e-09</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>9.174464222720634e-10</v>
+        <v>9.175455987827056e-10</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>8.258770265472198e-10</v>
+        <v>8.25796739530009e-10</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>7.376340772659141e-10</v>
+        <v>7.374539548786898e-10</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>6.532418844331104e-10</v>
+        <v>6.530608448126322e-10</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>5.732262907405e-10</v>
+        <v>5.731624517238562e-10</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>4.985477274584465e-10</v>
+        <v>4.987128083639186e-10</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>4.311966040257791e-10</v>
+        <v>4.316352576828136e-10</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>3.733125533881956e-10</v>
+        <v>3.739935765460265e-10</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>3.270352084913599e-10</v>
+        <v>3.278515418190089e-10</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.943532813067586e-10</v>
+        <v>2.951266877361311e-10</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>2.747187877055435e-10</v>
+        <v>2.752784865295813e-10</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>2.654779842705008e-10</v>
+        <v>2.657259267915095e-10</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.639133316364448e-10</v>
+        <v>2.638261787529356e-10</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.673072904382126e-10</v>
+        <v>2.66936412644904e-10</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>2.729423213106416e-10</v>
+        <v>2.724137986984575e-10</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.781008848885595e-10</v>
+        <v>2.776155071446307e-10</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.803129173451735e-10</v>
+        <v>2.80133048194099e-10</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.796295827229008e-10</v>
+        <v>2.799453376630019e-10</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>2.77574277999277e-10</v>
+        <v>2.784253808128526e-10</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>2.756888493503695e-10</v>
+        <v>2.769636528532514e-10</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>2.7551514295224e-10</v>
+        <v>2.76950628993794e-10</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.785869460663464e-10</v>
+        <v>2.797696844797057e-10</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.852003204012607e-10</v>
+        <v>2.857137490363012e-10</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>2.930914283780036e-10</v>
+        <v>2.928204618658669e-10</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>2.997947803212246e-10</v>
+        <v>2.98947886085631e-10</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>3.04447338100839e-10</v>
+        <v>3.033392270145263e-10</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>3.073584479858815e-10</v>
+        <v>3.062510866714583e-10</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>3.088642821118662e-10</v>
+        <v>3.079632550711677e-10</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>3.093010126143068e-10</v>
+        <v>3.08755522228395e-10</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>3.090048116287177e-10</v>
+        <v>3.089076781578819e-10</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>3.083118512906125e-10</v>
+        <v>3.086995128743684e-10</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>3.07556492688069e-10</v>
+        <v>3.084093198634835e-10</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>3.069506361161706e-10</v>
+        <v>3.082141991588376e-10</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>3.065079776514907e-10</v>
+        <v>3.081274680143856e-10</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>3.062241437853129e-10</v>
+        <v>3.081475121809684e-10</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>3.060947610089227e-10</v>
+        <v>3.082727174094278e-10</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>3.061154558136045e-10</v>
+        <v>3.085014694506046e-10</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>3.06281854690643e-10</v>
+        <v>3.088321540553406e-10</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>3.065895841313228e-10</v>
+        <v>3.092631569744769e-10</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>3.070342706269283e-10</v>
+        <v>3.097928639588545e-10</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>3.076115406687448e-10</v>
+        <v>3.104196607593155e-10</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>3.08317020748056e-10</v>
+        <v>3.111419331267001e-10</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>3.091463373561477e-10</v>
+        <v>3.119580668118509e-10</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>3.100951169843042e-10</v>
+        <v>3.128664475656087e-10</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>3.111589861238089e-10</v>
+        <v>3.138654611388138e-10</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>3.123335712659487e-10</v>
+        <v>3.149534932823094e-10</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.136144989020069e-10</v>
+        <v>3.161289297469358e-10</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.149973955232671e-10</v>
+        <v>3.173901562835333e-10</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.164778876210166e-10</v>
+        <v>3.187355586429454e-10</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>3.180516016865386e-10</v>
+        <v>3.201635225760124e-10</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.197141642111163e-10</v>
+        <v>3.216724338335741e-10</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.214612016860373e-10</v>
+        <v>3.232606781664747e-10</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.232883406025833e-10</v>
+        <v>3.249266413255525e-10</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.251912074520421e-10</v>
+        <v>3.266687090616519e-10</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.271654287256967e-10</v>
+        <v>3.284852671256128e-10</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.292066309148318e-10</v>
+        <v>3.303747012682764e-10</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.313104405107303e-10</v>
+        <v>3.323353972404823e-10</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.334724840046804e-10</v>
+        <v>3.343657407930752e-10</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.356908992787297e-10</v>
+        <v>3.364662381410221e-10</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.379778103647241e-10</v>
+        <v>3.38649204545235e-10</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.403501814874947e-10</v>
+        <v>3.409310420283269e-10</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.428249815490352e-10</v>
+        <v>3.433281565620198e-10</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.454191794513466e-10</v>
+        <v>3.458569541180425e-10</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.481497440964228e-10</v>
+        <v>3.485338406681168e-10</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.510336443862578e-10</v>
+        <v>3.513752221839647e-10</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.540878492228528e-10</v>
+        <v>3.543975046373155e-10</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.573293275082019e-10</v>
+        <v>3.57617093999891e-10</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.60775048144298e-10</v>
+        <v>3.610503962434123e-10</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.644419800331437e-10</v>
+        <v>3.647138173396099e-10</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.683470920767288e-10</v>
+        <v>3.686237632602014e-10</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.725073531770566e-10</v>
+        <v>3.727966399769184e-10</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.769397322361199e-10</v>
+        <v>3.772488534614814e-10</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.816611981559109e-10</v>
+        <v>3.819968096856105e-10</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.866887198384342e-10</v>
+        <v>3.870569146210386e-10</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>3.920392661856821e-10</v>
+        <v>3.924455742394857e-10</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>3.977298060996458e-10</v>
+        <v>3.981791945126708e-10</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>4.037773084823315e-10</v>
+        <v>4.042741814123287e-10</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>4.10198742235731e-10</v>
+        <v>4.107469409101785e-10</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>4.170110762618341e-10</v>
+        <v>4.176138789779382e-10</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>4.242312794626494e-10</v>
+        <v>4.248914015873445e-10</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>4.318763207401602e-10</v>
+        <v>4.325959147101086e-10</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>4.399631689963767e-10</v>
+        <v>4.407438243179683e-10</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>4.485087931332882e-10</v>
+        <v>4.493515363826416e-10</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>4.575301620528833e-10</v>
+        <v>4.584354568758444e-10</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>4.670442446571739e-10</v>
+        <v>4.680119917693169e-10</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>4.77068009848149e-10</v>
+        <v>4.78097547034776e-10</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>4.876184265277949e-10</v>
+        <v>4.887085286439356e-10</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>4.987124635981269e-10</v>
+        <v>4.998613425685397e-10</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>5.103670899611321e-10</v>
+        <v>5.115723947803028e-10</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>5.225992745187957e-10</v>
+        <v>5.238580912509383e-10</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>5.35425986173136e-10</v>
+        <v>5.367348379521925e-10</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>5.488641938261259e-10</v>
+        <v>5.502190408557661e-10</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>5.629308663797865e-10</v>
+        <v>5.643271059334081e-10</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>5.776775468838767e-10</v>
+        <v>5.791100692113789e-10</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>5.933191431590387e-10</v>
+        <v>5.947825956494348e-10</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>6.101187672693513e-10</v>
+        <v>6.116076323975552e-10</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>6.28339538265771e-10</v>
+        <v>6.298481336038952e-10</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>6.482445751991905e-10</v>
+        <v>6.497670534165459e-10</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>6.700969971205724e-10</v>
+        <v>6.716273459836679e-10</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>6.941599230808254e-10</v>
+        <v>6.956919654533688e-10</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>7.20696472130851e-10</v>
+        <v>7.222238659737481e-10</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>7.499697633216229e-10</v>
+        <v>7.514860016929782e-10</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>7.822429157040451e-10</v>
+        <v>7.837413267591616e-10</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>8.177790483290101e-10</v>
+        <v>8.19252795320389e-10</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>8.568130877155357e-10</v>
+        <v>8.5825516915905e-10</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>8.990763734204045e-10</v>
+        <v>9.004796260635633e-10</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>9.438659976929186e-10</v>
+        <v>9.452230990744247e-10</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>9.904648236574462e-10</v>
+        <v>9.917682921910664e-10</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.038155714438192e-09</v>
+        <v>1.039397909412758e-09</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.086221533159531e-09</v>
+        <v>1.087394654738938e-09</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.133945142945707e-09</v>
+        <v>1.135041232168913e-09</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.180609406920966e-09</v>
+        <v>1.181620345701996e-09</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.22549718820968e-09</v>
+        <v>1.226414699337622e-09</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.267891349936095e-09</v>
+        <v>1.2687069970751e-09</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.307074755224464e-09</v>
+        <v>1.307779942913748e-09</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.342330267199145e-09</v>
+        <v>1.342916240852988e-09</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.372940748984389e-09</v>
+        <v>1.373398594892135e-09</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.398189063704464e-09</v>
+        <v>1.398509709030521e-09</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.417358074483702e-09</v>
+        <v>1.417532287267543e-09</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.430119742634577e-09</v>
+        <v>1.430139335659049e-09</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.437941183671743e-09</v>
+        <v>1.437804568663322e-09</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.442806874211515e-09</v>
+        <v>1.442520662553583e-09</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.446701339161734e-09</v>
+        <v>1.446280342043992e-09</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.451609103430246e-09</v>
+        <v>1.451076331848713e-09</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.45951469192489e-09</v>
+        <v>1.458901356681907e-09</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.472402629553496e-09</v>
+        <v>1.471748141257719e-09</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.492257441223926e-09</v>
+        <v>1.491609410290333e-09</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.521062016034353e-09</v>
+        <v>1.520476244067102e-09</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.560292510333152e-09</v>
+        <v>1.559830320752909e-09</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.610203515976139e-09</v>
+        <v>1.60992531904843e-09</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.670869252799197e-09</v>
+        <v>1.670833595468581e-09</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.742363940638164e-09</v>
+        <v>1.742627506528238e-09</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.824761799329083e-09</v>
+        <v>1.825379408742477e-09</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.918137048707805e-09</v>
+        <v>1.919161658626183e-09</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.022563908610143e-09</v>
+        <v>2.024046612694204e-09</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.138116598872194e-09</v>
+        <v>2.140106627461675e-09</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.264736664141643e-09</v>
+        <v>2.267279794293865e-09</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>2.400746674982732e-09</v>
+        <v>2.403865828906909e-09</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>2.543387127834521e-09</v>
+        <v>2.547069405462304e-09</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>2.6898787187199e-09</v>
+        <v>2.694075160419871e-09</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>2.837442143662153e-09</v>
+        <v>2.842067730239833e-09</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>2.98329809868417e-09</v>
+        <v>2.988231751382013e-09</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>3.124667279808848e-09</v>
+        <v>3.129751860306245e-09</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>3.258770383059464e-09</v>
+        <v>3.26381269347274e-09</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>3.382828104458907e-09</v>
+        <v>3.387598887341324e-09</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>3.494093996517804e-09</v>
+        <v>3.49833400045101e-09</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>3.590289362998203e-09</v>
+        <v>3.593795693513708e-09</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>3.669483748447259e-09</v>
+        <v>3.672174156283613e-09</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>3.729754997656958e-09</v>
+        <v>3.73166941105658e-09</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>3.769180955419063e-09</v>
+        <v>3.770481480128244e-09</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>3.78583946652541e-09</v>
+        <v>3.786810385794315e-09</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>3.777808811454738e-09</v>
+        <v>3.778856540814337e-09</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>3.743874174412184e-09</v>
+        <v>3.745453887066248e-09</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>3.684965156557983e-09</v>
+        <v>3.68735819896657e-09</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>3.602416460616685e-09</v>
+        <v>3.605688304099196e-09</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>3.497562789442414e-09</v>
+        <v>3.501563030194573e-09</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>3.372089859044703e-09</v>
+        <v>3.376498296960063e-09</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>3.229057345207434e-09</v>
+        <v>3.233564348761838e-09</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>3.071861051005824e-09</v>
+        <v>3.076211681955307e-09</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>2.903896779514563e-09</v>
+        <v>2.907890792895345e-09</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>2.728560333808753e-09</v>
+        <v>2.732052177937244e-09</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>2.549247516963367e-09</v>
+        <v>2.552146333436167e-09</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>2.369354132053535e-09</v>
+        <v>2.371623755747432e-09</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>2.192275982153901e-09</v>
+        <v>2.193934941225872e-09</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>2.021408870339748e-09</v>
+        <v>2.022530386226958e-09</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.859745109552123e-09</v>
+        <v>1.86044909490991e-09</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.707953673571345e-09</v>
+        <v>1.708360655547905e-09</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.565873652061511e-09</v>
+        <v>1.566088313942144e-09</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.433343098958883e-09</v>
+        <v>1.433454259625323e-09</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.310200068200108e-09</v>
+        <v>1.310280682130528e-09</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.196282613721802e-09</v>
+        <v>1.196389770990809e-09</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.091428789460275e-09</v>
+        <v>1.091603715738915e-09</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>9.9547664935215e-10</v>
+        <v>9.957447059079042e-10</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>9.08263689822681e-10</v>
+        <v>9.086344274133318e-10</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>8.295733515555263e-10</v>
+        <v>8.300457359243443e-10</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>7.590906232708974e-10</v>
+        <v>7.596625523644167e-10</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>6.964900435045877e-10</v>
+        <v>6.971593576777313e-10</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>6.414461507925836e-10</v>
+        <v>6.422106328086636e-10</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>5.936334836708448e-10</v>
+        <v>5.944908587015616e-10</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>5.52726580675205e-10</v>
+        <v>5.536745163006485e-10</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>5.183999803416301e-10</v>
+        <v>5.194360865502792e-10</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>4.903282212060627e-10</v>
+        <v>4.914500503947845e-10</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>4.681695351738819e-10</v>
+        <v>4.693743844380829e-10</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>4.511955131986835e-10</v>
+        <v>4.524757365015139e-10</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>4.382845555223583e-10</v>
+        <v>4.396227964513091e-10</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>4.28297445688431e-10</v>
+        <v>4.296664238615586e-10</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>4.200949672404688e-10</v>
+        <v>4.214574783063948e-10</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>4.125379037220049e-10</v>
+        <v>4.13846819359916e-10</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>4.044870386765948e-10</v>
+        <v>4.056853065962425e-10</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>3.948031556477948e-10</v>
+        <v>3.958237995894963e-10</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>3.823470381791362e-10</v>
+        <v>3.83113157913773e-10</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>3.66680883639801e-10</v>
+        <v>3.671253418591139e-10</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>3.503964431557745e-10</v>
+        <v>3.505468972899145e-10</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>3.369032267500178e-10</v>
+        <v>3.369050813661214e-10</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>3.295481326953222e-10</v>
+        <v>3.296613381754547e-10</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>3.276358319241014e-10</v>
+        <v>3.280282253577182e-10</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>3.250588637626964e-10</v>
+        <v>3.2553526138789e-10</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>3.216800684493339e-10</v>
+        <v>3.220245311164729e-10</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>3.199405431634794e-10</v>
+        <v>3.200627803172987e-10</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>3.222876193229509e-10</v>
+        <v>3.222233430081225e-10</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>3.310471023778849e-10</v>
+        <v>3.309536415911718e-10</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>3.457370974235007e-10</v>
+        <v>3.457920733907434e-10</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>3.630609895788105e-10</v>
+        <v>3.633607377067378e-10</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>3.795992340680821e-10</v>
+        <v>3.801543676313295e-10</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>3.919322861156391e-10</v>
+        <v>3.926676962567507e-10</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>3.966424366100166e-10</v>
+        <v>3.973973358671843e-10</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>3.922198410561419e-10</v>
+        <v>3.927930031380345e-10</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>3.826703900612744e-10</v>
+        <v>3.829509403716351e-10</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>3.729909224484022e-10</v>
+        <v>3.729818357041503e-10</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>3.679547463035634e-10</v>
+        <v>3.677682567939677e-10</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>3.681412794148493e-10</v>
+        <v>3.67912768148386e-10</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>3.704032569557523e-10</v>
+        <v>3.702147319493127e-10</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>3.714637337137797e-10</v>
+        <v>3.713411672744671e-10</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>3.686949706452385e-10</v>
+        <v>3.686201023113948e-10</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>3.622174372526177e-10</v>
+        <v>3.621777378036491e-10</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>3.528786816117575e-10</v>
+        <v>3.528805717742016e-10</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>3.415262564267153e-10</v>
+        <v>3.415951069583847e-10</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>3.290077144015554e-10</v>
+        <v>3.291878460915379e-10</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>3.161705733573409e-10</v>
+        <v>3.16525252820618e-10</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>3.037372767940188e-10</v>
+        <v>3.043336379032013e-10</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.92024168013222e-10</v>
+        <v>2.928842537310695e-10</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.812653133992183e-10</v>
+        <v>2.823561567312827e-10</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.716947793363074e-10</v>
+        <v>2.729284033309325e-10</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.635466322087849e-10</v>
+        <v>2.647800499571065e-10</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>2.570549384009247e-10</v>
+        <v>2.580901530368706e-10</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>2.52453753735399e-10</v>
+        <v>2.530377618249168e-10</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>2.494846735280002e-10</v>
+        <v>2.494674470477976e-10</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>2.467481220515534e-10</v>
+        <v>2.464302390224509e-10</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.441146988824183e-10</v>
+        <v>2.437932464713546e-10</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>2.417146908849527e-10</v>
+        <v>2.415927725970935e-10</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>2.396783849235082e-10</v>
+        <v>2.398651206022468e-10</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>2.381360678624445e-10</v>
+        <v>2.386465936894008e-10</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.371876685974046e-10</v>
+        <v>2.379574448420937e-10</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.367891826581199e-10</v>
+        <v>2.377418296582803e-10</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.368539919381243e-10</v>
+        <v>2.379213739612222e-10</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.372954717893439e-10</v>
+        <v>2.384177001156409e-10</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.380269975637042e-10</v>
+        <v>2.39152430486258e-10</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.389619446131298e-10</v>
+        <v>2.400471874377939e-10</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.400136882895482e-10</v>
+        <v>2.410235933349717e-10</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.41095603944884e-10</v>
+        <v>2.420032705425121e-10</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.421210669310621e-10</v>
+        <v>2.429078414251357e-10</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.430034526000097e-10</v>
+        <v>2.436589283475655e-10</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.436561363036512e-10</v>
+        <v>2.441781536745218e-10</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.439926736407403e-10</v>
+        <v>2.443873071419613e-10</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>2.439612567138886e-10</v>
+        <v>2.442403407962771e-10</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>2.435856699078502e-10</v>
+        <v>2.437613991736942e-10</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>2.428996693901023e-10</v>
+        <v>2.429838862776414e-10</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>2.419370113281235e-10</v>
+        <v>2.419412061115492e-10</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.407314518893934e-10</v>
+        <v>2.406667626788489e-10</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>2.393167472413878e-10</v>
+        <v>2.391939599829681e-10</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>2.377266535515861e-10</v>
+        <v>2.375562020273381e-10</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>2.35994926987468e-10</v>
+        <v>2.357868928153904e-10</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>2.341553237165087e-10</v>
+        <v>2.339194363505518e-10</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>2.322415999061897e-10</v>
+        <v>2.319872366362558e-10</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>2.302875117239859e-10</v>
+        <v>2.300236976759288e-10</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>2.28326815337377e-10</v>
+        <v>2.280622234730027e-10</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>2.263932669138432e-10</v>
+        <v>2.261362180309092e-10</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>2.24520622620859e-10</v>
+        <v>2.242790853530747e-10</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>2.227426386259046e-10</v>
+        <v>2.225242294429311e-10</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>2.210930710964597e-10</v>
+        <v>2.209050543039099e-10</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>2.196056761999994e-10</v>
+        <v>2.194549639394382e-10</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.183142101040035e-10</v>
+        <v>2.182073623529474e-10</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.172505316753841e-10</v>
+        <v>2.171934404045266e-10</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>2.164377486362016e-10</v>
+        <v>2.164341810102542e-10</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>2.158964472937552e-10</v>
+        <v>2.159476259326616e-10</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>2.156472137212209e-10</v>
+        <v>2.157518166611831e-10</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>2.157106339917761e-10</v>
+        <v>2.158647946852546e-10</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.161072941785975e-10</v>
+        <v>2.163046014943111e-10</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.168577803548612e-10</v>
+        <v>2.170892785777871e-10</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.179826785937453e-10</v>
+        <v>2.182368674251191e-10</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.195025749684246e-10</v>
+        <v>2.197654095257401e-10</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.214380555520787e-10</v>
+        <v>2.216929463690882e-10</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.238097064178831e-10</v>
+        <v>2.240375194445974e-10</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.266381136390121e-10</v>
+        <v>2.268171702417e-10</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.299438632886473e-10</v>
+        <v>2.300499402498363e-10</v>
       </c>
     </row>
   </sheetData>
